--- a/data/pca/factorExposure/factorExposure_2015-10-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01976362889434465</v>
+        <v>0.01888912735977207</v>
       </c>
       <c r="C2">
-        <v>0.02971298869023643</v>
+        <v>0.03734564106969636</v>
       </c>
       <c r="D2">
-        <v>0.1093884625927376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1261831209282615</v>
+      </c>
+      <c r="E2">
+        <v>-0.05003498799607117</v>
+      </c>
+      <c r="F2">
+        <v>-0.0268036243189081</v>
+      </c>
+      <c r="G2">
+        <v>-0.04036066032728945</v>
+      </c>
+      <c r="H2">
+        <v>0.1043559327907333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01268915961074233</v>
+        <v>0.008018455775029637</v>
       </c>
       <c r="C3">
-        <v>0.04608293254618775</v>
+        <v>0.03734443263739889</v>
       </c>
       <c r="D3">
-        <v>0.08194184806732241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05880672809256277</v>
+      </c>
+      <c r="E3">
+        <v>-0.04895388192460222</v>
+      </c>
+      <c r="F3">
+        <v>-0.06351846222924856</v>
+      </c>
+      <c r="G3">
+        <v>-0.09955317788381586</v>
+      </c>
+      <c r="H3">
+        <v>0.102976844735732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04559007401993523</v>
+        <v>0.04598001382403828</v>
       </c>
       <c r="C4">
-        <v>0.06276182291581175</v>
+        <v>0.07494842783106799</v>
       </c>
       <c r="D4">
-        <v>0.1255744785515314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.150884513701776</v>
+      </c>
+      <c r="E4">
+        <v>-0.05833492571637331</v>
+      </c>
+      <c r="F4">
+        <v>-0.04832268000202548</v>
+      </c>
+      <c r="G4">
+        <v>0.0460207425538352</v>
+      </c>
+      <c r="H4">
+        <v>-0.00255065680955511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03584515989795307</v>
+        <v>0.03757532747938131</v>
       </c>
       <c r="C6">
-        <v>0.02378360551172905</v>
+        <v>0.03091183538204115</v>
       </c>
       <c r="D6">
-        <v>0.153230223367683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.141633108575346</v>
+      </c>
+      <c r="E6">
+        <v>-0.01087173497765589</v>
+      </c>
+      <c r="F6">
+        <v>-0.02787375676565907</v>
+      </c>
+      <c r="G6">
+        <v>0.02479690392693726</v>
+      </c>
+      <c r="H6">
+        <v>0.0516612295995692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01830374313596056</v>
+        <v>0.01469900279817115</v>
       </c>
       <c r="C7">
-        <v>0.02798512712227876</v>
+        <v>0.03363597636091999</v>
       </c>
       <c r="D7">
-        <v>0.107464808619016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09712444421677663</v>
+      </c>
+      <c r="E7">
+        <v>-0.007861905984242324</v>
+      </c>
+      <c r="F7">
+        <v>-0.02859829299378481</v>
+      </c>
+      <c r="G7">
+        <v>0.0002094285796445216</v>
+      </c>
+      <c r="H7">
+        <v>0.08378998261292306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01045674192496603</v>
+        <v>0.008017856155858262</v>
       </c>
       <c r="C8">
-        <v>0.0349402461266825</v>
+        <v>0.03732775636105798</v>
       </c>
       <c r="D8">
-        <v>0.06444840541822809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07658654423608997</v>
+      </c>
+      <c r="E8">
+        <v>-0.02559834683598045</v>
+      </c>
+      <c r="F8">
+        <v>-0.06769613859999511</v>
+      </c>
+      <c r="G8">
+        <v>-0.02610295514874743</v>
+      </c>
+      <c r="H8">
+        <v>0.06331937940216206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.038825802398697</v>
+        <v>0.0376684868753905</v>
       </c>
       <c r="C9">
-        <v>0.05648959126587149</v>
+        <v>0.06636107782115908</v>
       </c>
       <c r="D9">
-        <v>0.1119355473211831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1246697587455571</v>
+      </c>
+      <c r="E9">
+        <v>-0.041362148252421</v>
+      </c>
+      <c r="F9">
+        <v>-0.02752180958787216</v>
+      </c>
+      <c r="G9">
+        <v>0.02729286713726123</v>
+      </c>
+      <c r="H9">
+        <v>0.002563284508743005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1153988262850542</v>
+        <v>0.1527713505625608</v>
       </c>
       <c r="C10">
-        <v>-0.1902091640951755</v>
+        <v>-0.187254238674571</v>
       </c>
       <c r="D10">
-        <v>0.007307202995422665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01310356060309509</v>
+      </c>
+      <c r="E10">
+        <v>-0.03728196992017606</v>
+      </c>
+      <c r="F10">
+        <v>-0.052661165623372</v>
+      </c>
+      <c r="G10">
+        <v>-0.005973526295253696</v>
+      </c>
+      <c r="H10">
+        <v>-0.03954077761160443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03088967980145126</v>
+        <v>0.02825651065696502</v>
       </c>
       <c r="C11">
-        <v>0.04315533296527746</v>
+        <v>0.04691633719949265</v>
       </c>
       <c r="D11">
-        <v>0.06203007211278858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05902908779522478</v>
+      </c>
+      <c r="E11">
+        <v>0.01045470837333822</v>
+      </c>
+      <c r="F11">
+        <v>0.006603461326659016</v>
+      </c>
+      <c r="G11">
+        <v>0.004814119649995241</v>
+      </c>
+      <c r="H11">
+        <v>0.03449166583493462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03748811017456224</v>
+        <v>0.03311707983131908</v>
       </c>
       <c r="C12">
-        <v>0.04485189974219204</v>
+        <v>0.04888481454099181</v>
       </c>
       <c r="D12">
-        <v>0.0605057226073924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05522537693072858</v>
+      </c>
+      <c r="E12">
+        <v>0.0004107018569064229</v>
+      </c>
+      <c r="F12">
+        <v>0.01005062490431158</v>
+      </c>
+      <c r="G12">
+        <v>-0.002111071781920273</v>
+      </c>
+      <c r="H12">
+        <v>0.0403105909351912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01162782101711865</v>
+        <v>0.01697428321718375</v>
       </c>
       <c r="C13">
-        <v>0.03509872654035145</v>
+        <v>0.03984635385859654</v>
       </c>
       <c r="D13">
-        <v>0.1398988898419271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1561632581104964</v>
+      </c>
+      <c r="E13">
+        <v>-0.01981367347693773</v>
+      </c>
+      <c r="F13">
+        <v>-0.06200023087337152</v>
+      </c>
+      <c r="G13">
+        <v>-0.01678726173154064</v>
+      </c>
+      <c r="H13">
+        <v>0.07204449644596336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005069841266099744</v>
+        <v>0.007500136523082599</v>
       </c>
       <c r="C14">
-        <v>0.02260027072398172</v>
+        <v>0.02416980916324416</v>
       </c>
       <c r="D14">
-        <v>0.09337168867269029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09721176922733307</v>
+      </c>
+      <c r="E14">
+        <v>-0.02506453240084743</v>
+      </c>
+      <c r="F14">
+        <v>-0.01573586733239997</v>
+      </c>
+      <c r="G14">
+        <v>0.003939106642958357</v>
+      </c>
+      <c r="H14">
+        <v>0.09407018258708431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002617214900974529</v>
+        <v>0.001394693917683345</v>
       </c>
       <c r="C15">
-        <v>0.005216415407737467</v>
+        <v>0.01242632365788702</v>
       </c>
       <c r="D15">
-        <v>0.007769095842408362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03651879020468624</v>
+      </c>
+      <c r="E15">
+        <v>-0.009174490027153979</v>
+      </c>
+      <c r="F15">
+        <v>-0.001866110719759079</v>
+      </c>
+      <c r="G15">
+        <v>0.001864070176119774</v>
+      </c>
+      <c r="H15">
+        <v>0.02124825569822226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03118378724377863</v>
+        <v>0.02866614714267981</v>
       </c>
       <c r="C16">
-        <v>0.04474058936894438</v>
+        <v>0.04704316165930225</v>
       </c>
       <c r="D16">
-        <v>0.0678822588988334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06226719319658262</v>
+      </c>
+      <c r="E16">
+        <v>-0.005596474564538708</v>
+      </c>
+      <c r="F16">
+        <v>0.0005973487497849952</v>
+      </c>
+      <c r="G16">
+        <v>0.005321879133151586</v>
+      </c>
+      <c r="H16">
+        <v>0.04864260745616332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01109762562193226</v>
+        <v>0.008316258898188088</v>
       </c>
       <c r="C19">
-        <v>0.03266427391252201</v>
+        <v>0.02797078675702974</v>
       </c>
       <c r="D19">
-        <v>0.1474544541189857</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1140796456259514</v>
+      </c>
+      <c r="E19">
+        <v>-0.05157453431206302</v>
+      </c>
+      <c r="F19">
+        <v>-0.005754765457127509</v>
+      </c>
+      <c r="G19">
+        <v>-0.02255479205354927</v>
+      </c>
+      <c r="H19">
+        <v>0.05439275959622271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01348808193781995</v>
+        <v>0.01510408528496853</v>
       </c>
       <c r="C20">
-        <v>0.03171305845917958</v>
+        <v>0.03535059689981356</v>
       </c>
       <c r="D20">
-        <v>0.09188671554821812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1055766329275479</v>
+      </c>
+      <c r="E20">
+        <v>-0.04360312352319251</v>
+      </c>
+      <c r="F20">
+        <v>-0.01627771360089066</v>
+      </c>
+      <c r="G20">
+        <v>0.010954528256256</v>
+      </c>
+      <c r="H20">
+        <v>0.05148647827149089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009143197759831275</v>
+        <v>0.00938430541946483</v>
       </c>
       <c r="C21">
-        <v>0.03486154931263401</v>
+        <v>0.03860610525528688</v>
       </c>
       <c r="D21">
-        <v>0.1408832807904697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.142964833035658</v>
+      </c>
+      <c r="E21">
+        <v>-0.07522391208950002</v>
+      </c>
+      <c r="F21">
+        <v>-0.04556087822696794</v>
+      </c>
+      <c r="G21">
+        <v>0.005892158629377777</v>
+      </c>
+      <c r="H21">
+        <v>0.08339313612285802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001324196902825007</v>
+        <v>0.007356180971828494</v>
       </c>
       <c r="C22">
-        <v>0.04791718710411965</v>
+        <v>0.0434102006187273</v>
       </c>
       <c r="D22">
-        <v>0.1114582748638016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1647384362687631</v>
+      </c>
+      <c r="E22">
+        <v>-0.01176427354395675</v>
+      </c>
+      <c r="F22">
+        <v>-0.09151538092295329</v>
+      </c>
+      <c r="G22">
+        <v>-0.05489918650862165</v>
+      </c>
+      <c r="H22">
+        <v>0.01655425652888401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001172280130701899</v>
+        <v>0.007500918056230151</v>
       </c>
       <c r="C23">
-        <v>0.04821353608325048</v>
+        <v>0.0438888013825312</v>
       </c>
       <c r="D23">
-        <v>0.110986426824666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1640654524442511</v>
+      </c>
+      <c r="E23">
+        <v>-0.01217844342258434</v>
+      </c>
+      <c r="F23">
+        <v>-0.09173870390001357</v>
+      </c>
+      <c r="G23">
+        <v>-0.05420948459956962</v>
+      </c>
+      <c r="H23">
+        <v>0.01584618178542873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0349898620465492</v>
+        <v>0.03040260415862074</v>
       </c>
       <c r="C24">
-        <v>0.05666431872955276</v>
+        <v>0.05930505812076266</v>
       </c>
       <c r="D24">
-        <v>0.06726795794751567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06399344104361285</v>
+      </c>
+      <c r="E24">
+        <v>-0.006841757505728349</v>
+      </c>
+      <c r="F24">
+        <v>0.001342800488598213</v>
+      </c>
+      <c r="G24">
+        <v>0.01471000180733716</v>
+      </c>
+      <c r="H24">
+        <v>0.05693859349992389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03913815097700727</v>
+        <v>0.03443135859540934</v>
       </c>
       <c r="C25">
-        <v>0.05324797856716216</v>
+        <v>0.05627962557757082</v>
       </c>
       <c r="D25">
-        <v>0.06574198662220652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06150902175810895</v>
+      </c>
+      <c r="E25">
+        <v>-0.007404515422401207</v>
+      </c>
+      <c r="F25">
+        <v>-0.0005730327996320168</v>
+      </c>
+      <c r="G25">
+        <v>-0.000381258599309825</v>
+      </c>
+      <c r="H25">
+        <v>0.03008963954006582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01473853698916561</v>
+        <v>0.01567129352705861</v>
       </c>
       <c r="C26">
-        <v>0.0115745280274424</v>
+        <v>0.01878456810672495</v>
       </c>
       <c r="D26">
-        <v>0.05983158840084769</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0654627826085467</v>
+      </c>
+      <c r="E26">
+        <v>-0.01867037025144234</v>
+      </c>
+      <c r="F26">
+        <v>-0.01890396040929872</v>
+      </c>
+      <c r="G26">
+        <v>0.006532862014532959</v>
+      </c>
+      <c r="H26">
+        <v>0.05668662204883226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1696148478335591</v>
+        <v>0.2210547440608032</v>
       </c>
       <c r="C28">
-        <v>-0.2639313340151085</v>
+        <v>-0.2545411764795826</v>
       </c>
       <c r="D28">
-        <v>-0.006230004838335517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0001896933039894987</v>
+      </c>
+      <c r="E28">
+        <v>-0.07462666631189438</v>
+      </c>
+      <c r="F28">
+        <v>-0.04350722402218819</v>
+      </c>
+      <c r="G28">
+        <v>0.01796751928466932</v>
+      </c>
+      <c r="H28">
+        <v>-0.05923816285083277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0006819557034026293</v>
+        <v>0.004419238694595966</v>
       </c>
       <c r="C29">
-        <v>0.02101696239882037</v>
+        <v>0.0225463658093666</v>
       </c>
       <c r="D29">
-        <v>0.08272761710785313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09453130126804923</v>
+      </c>
+      <c r="E29">
+        <v>-0.01562243628519171</v>
+      </c>
+      <c r="F29">
+        <v>-0.03335260831265648</v>
+      </c>
+      <c r="G29">
+        <v>0.01356499245031723</v>
+      </c>
+      <c r="H29">
+        <v>0.09176779986125778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03012200728096297</v>
+        <v>0.03548448651834774</v>
       </c>
       <c r="C30">
-        <v>0.05916051972119261</v>
+        <v>0.06647102185092903</v>
       </c>
       <c r="D30">
-        <v>0.1585722168788986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1723509400395514</v>
+      </c>
+      <c r="E30">
+        <v>-0.01760313427505337</v>
+      </c>
+      <c r="F30">
+        <v>-0.02960748412952375</v>
+      </c>
+      <c r="G30">
+        <v>0.03051562864969077</v>
+      </c>
+      <c r="H30">
+        <v>0.06199688240882931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06229407413387957</v>
+        <v>0.0518177558879982</v>
       </c>
       <c r="C31">
-        <v>0.07079256478681308</v>
+        <v>0.07920416815074807</v>
       </c>
       <c r="D31">
-        <v>0.06577609577220611</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05337837761964768</v>
+      </c>
+      <c r="E31">
+        <v>-0.01715015941657497</v>
+      </c>
+      <c r="F31">
+        <v>-0.04121222060991732</v>
+      </c>
+      <c r="G31">
+        <v>-0.007860863194402073</v>
+      </c>
+      <c r="H31">
+        <v>0.0245656976733467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01253567199850879</v>
+        <v>0.0166714247866831</v>
       </c>
       <c r="C32">
-        <v>0.01881426066006129</v>
+        <v>0.01990143777879949</v>
       </c>
       <c r="D32">
-        <v>0.08197176156215527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1154698635968197</v>
+      </c>
+      <c r="E32">
+        <v>-0.06502801321099444</v>
+      </c>
+      <c r="F32">
+        <v>-0.05146356347266897</v>
+      </c>
+      <c r="G32">
+        <v>0.004029367337086368</v>
+      </c>
+      <c r="H32">
+        <v>0.05824044942448587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02326893527435801</v>
+        <v>0.0243188890479644</v>
       </c>
       <c r="C33">
-        <v>0.04056596975353524</v>
+        <v>0.04620079195931804</v>
       </c>
       <c r="D33">
-        <v>0.1424356110940532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1366747938318363</v>
+      </c>
+      <c r="E33">
+        <v>-0.03320693500451809</v>
+      </c>
+      <c r="F33">
+        <v>-0.02627910504534544</v>
+      </c>
+      <c r="G33">
+        <v>0.003757785249550066</v>
+      </c>
+      <c r="H33">
+        <v>0.05956890346720128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0305692234086814</v>
+        <v>0.02470593153336293</v>
       </c>
       <c r="C34">
-        <v>0.06606697639675475</v>
+        <v>0.06348442732273252</v>
       </c>
       <c r="D34">
-        <v>0.06736306809382718</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05466234096137929</v>
+      </c>
+      <c r="E34">
+        <v>0.008018877526135903</v>
+      </c>
+      <c r="F34">
+        <v>0.0133866013328861</v>
+      </c>
+      <c r="G34">
+        <v>-0.0005615579782649112</v>
+      </c>
+      <c r="H34">
+        <v>0.0562883936135266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009324579672986744</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001087912453978857</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008017545484375957</v>
+      </c>
+      <c r="E35">
+        <v>0.0004343964763149276</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004124041845587153</v>
+      </c>
+      <c r="G35">
+        <v>0.0004259562549896005</v>
+      </c>
+      <c r="H35">
+        <v>0.003501685480687743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01778920953980772</v>
+        <v>0.01888365111069464</v>
       </c>
       <c r="C36">
-        <v>0.007242833044065865</v>
+        <v>0.01575035591797992</v>
       </c>
       <c r="D36">
-        <v>0.08427132651587713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08087776022386774</v>
+      </c>
+      <c r="E36">
+        <v>-0.02493773510829175</v>
+      </c>
+      <c r="F36">
+        <v>-0.01593769386900291</v>
+      </c>
+      <c r="G36">
+        <v>0.01564023918397319</v>
+      </c>
+      <c r="H36">
+        <v>0.0444262718646961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01834252270413664</v>
+        <v>0.02147852478822461</v>
       </c>
       <c r="C38">
-        <v>0.0151765361584618</v>
+        <v>0.01763947088108806</v>
       </c>
       <c r="D38">
-        <v>0.07296199183370904</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07271972276905971</v>
+      </c>
+      <c r="E38">
+        <v>-0.0303370988982544</v>
+      </c>
+      <c r="F38">
+        <v>0.0129877717626972</v>
+      </c>
+      <c r="G38">
+        <v>-0.01769535172392141</v>
+      </c>
+      <c r="H38">
+        <v>0.04120379920015935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03744490779151752</v>
+        <v>0.0340827223557553</v>
       </c>
       <c r="C39">
-        <v>0.05951354362502232</v>
+        <v>0.06979045715844798</v>
       </c>
       <c r="D39">
-        <v>0.0922354403159189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.102440087452134</v>
+      </c>
+      <c r="E39">
+        <v>-0.007910779538662033</v>
+      </c>
+      <c r="F39">
+        <v>0.02181791948285008</v>
+      </c>
+      <c r="G39">
+        <v>0.02983883737490255</v>
+      </c>
+      <c r="H39">
+        <v>0.09150470922238778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01412262728960689</v>
+        <v>0.01351744945412854</v>
       </c>
       <c r="C40">
-        <v>0.04315459195317888</v>
+        <v>0.03657964173211712</v>
       </c>
       <c r="D40">
-        <v>0.08394568314615421</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09006897393574582</v>
+      </c>
+      <c r="E40">
+        <v>-0.03481803832833978</v>
+      </c>
+      <c r="F40">
+        <v>-0.09975421376024728</v>
+      </c>
+      <c r="G40">
+        <v>-0.09296399195584161</v>
+      </c>
+      <c r="H40">
+        <v>0.1784185238589938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02525232505618854</v>
+        <v>0.02438431119304378</v>
       </c>
       <c r="C41">
-        <v>0.00328540652034209</v>
+        <v>0.009945242329984019</v>
       </c>
       <c r="D41">
-        <v>0.07065403845473557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05430728313620193</v>
+      </c>
+      <c r="E41">
+        <v>-0.04721813232151065</v>
+      </c>
+      <c r="F41">
+        <v>-0.01834900576293932</v>
+      </c>
+      <c r="G41">
+        <v>-0.01687533711165251</v>
+      </c>
+      <c r="H41">
+        <v>0.04444210736497674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02626358856624542</v>
+        <v>0.02326772383880814</v>
       </c>
       <c r="C43">
-        <v>0.01386246619161392</v>
+        <v>0.01866676590783731</v>
       </c>
       <c r="D43">
-        <v>0.1128763093932894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08663128966259609</v>
+      </c>
+      <c r="E43">
+        <v>-0.02178118129561011</v>
+      </c>
+      <c r="F43">
+        <v>-0.01272613245101948</v>
+      </c>
+      <c r="G43">
+        <v>-0.01848916466307437</v>
+      </c>
+      <c r="H43">
+        <v>0.05435437261332342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0130056690002636</v>
+        <v>0.01590206041918461</v>
       </c>
       <c r="C44">
-        <v>0.04069254721813083</v>
+        <v>0.03890166225124245</v>
       </c>
       <c r="D44">
-        <v>0.09263711689797698</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1092921301281699</v>
+      </c>
+      <c r="E44">
+        <v>-0.03961853753079324</v>
+      </c>
+      <c r="F44">
+        <v>-0.02562693025724104</v>
+      </c>
+      <c r="G44">
+        <v>-0.005751549763639607</v>
+      </c>
+      <c r="H44">
+        <v>0.05348497507796912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01310775695243866</v>
+        <v>0.01153727433669443</v>
       </c>
       <c r="C46">
-        <v>0.02467544861816524</v>
+        <v>0.03127662372816134</v>
       </c>
       <c r="D46">
-        <v>0.08959174349127484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09050746346747304</v>
+      </c>
+      <c r="E46">
+        <v>-0.02795196523552721</v>
+      </c>
+      <c r="F46">
+        <v>-0.01494358664620657</v>
+      </c>
+      <c r="G46">
+        <v>0.01546396760100408</v>
+      </c>
+      <c r="H46">
+        <v>0.08875410828567203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09344580134963688</v>
+        <v>0.0794254878735417</v>
       </c>
       <c r="C47">
-        <v>0.080588620785116</v>
+        <v>0.0941593688467274</v>
       </c>
       <c r="D47">
-        <v>0.03674205001875415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03149963803596421</v>
+      </c>
+      <c r="E47">
+        <v>-0.03224579584355879</v>
+      </c>
+      <c r="F47">
+        <v>-0.03330492395272029</v>
+      </c>
+      <c r="G47">
+        <v>-0.0276910965183011</v>
+      </c>
+      <c r="H47">
+        <v>-0.03132037027516985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01148829189873771</v>
+        <v>0.01407269317915754</v>
       </c>
       <c r="C48">
-        <v>0.01787287243977387</v>
+        <v>0.02109862391694015</v>
       </c>
       <c r="D48">
-        <v>0.07186591536690513</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07701454976958216</v>
+      </c>
+      <c r="E48">
+        <v>-0.05328068581154527</v>
+      </c>
+      <c r="F48">
+        <v>-0.02383290043116836</v>
+      </c>
+      <c r="G48">
+        <v>0.01271018390369742</v>
+      </c>
+      <c r="H48">
+        <v>0.05471354458025185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05921359240553362</v>
+        <v>0.0497155920745136</v>
       </c>
       <c r="C50">
-        <v>0.05957638483704771</v>
+        <v>0.06975458128007951</v>
       </c>
       <c r="D50">
-        <v>0.0582536825789241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05289317865492151</v>
+      </c>
+      <c r="E50">
+        <v>-0.01955976228331709</v>
+      </c>
+      <c r="F50">
+        <v>-0.044982636186692</v>
+      </c>
+      <c r="G50">
+        <v>-0.03965170546985423</v>
+      </c>
+      <c r="H50">
+        <v>0.0282252240113284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01063776294930082</v>
+        <v>0.01103152165545916</v>
       </c>
       <c r="C51">
-        <v>0.01536543181326968</v>
+        <v>0.02036420607551561</v>
       </c>
       <c r="D51">
-        <v>0.08218792369442642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09195201306482848</v>
+      </c>
+      <c r="E51">
+        <v>-0.00343347642210806</v>
+      </c>
+      <c r="F51">
+        <v>-0.004775379606011273</v>
+      </c>
+      <c r="G51">
+        <v>0.02080523475783886</v>
+      </c>
+      <c r="H51">
+        <v>0.08017689919809298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08979014027762071</v>
+        <v>0.08552487791107288</v>
       </c>
       <c r="C53">
-        <v>0.09142470639067721</v>
+        <v>0.1019128573816857</v>
       </c>
       <c r="D53">
-        <v>0.009311169333411799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01904137440183249</v>
+      </c>
+      <c r="E53">
+        <v>-0.09730989100402537</v>
+      </c>
+      <c r="F53">
+        <v>-0.09176275732840769</v>
+      </c>
+      <c r="G53">
+        <v>0.03833159415315537</v>
+      </c>
+      <c r="H53">
+        <v>-0.02765114525245384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02556923147414537</v>
+        <v>0.02552819209585898</v>
       </c>
       <c r="C54">
-        <v>0.028819950266714</v>
+        <v>0.03414221466821746</v>
       </c>
       <c r="D54">
-        <v>0.09537124861362405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08972994746016968</v>
+      </c>
+      <c r="E54">
+        <v>-0.03202158776753551</v>
+      </c>
+      <c r="F54">
+        <v>-0.007417283806925283</v>
+      </c>
+      <c r="G54">
+        <v>-0.02273251678764144</v>
+      </c>
+      <c r="H54">
+        <v>0.08768261828860048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09040493781066422</v>
+        <v>0.08228657604840978</v>
       </c>
       <c r="C55">
-        <v>0.06925895099882143</v>
+        <v>0.08254300863461832</v>
       </c>
       <c r="D55">
-        <v>-0.01226426433679857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005962695082433227</v>
+      </c>
+      <c r="E55">
+        <v>-0.04883630423091358</v>
+      </c>
+      <c r="F55">
+        <v>-0.06395642009731517</v>
+      </c>
+      <c r="G55">
+        <v>0.01596438782790733</v>
+      </c>
+      <c r="H55">
+        <v>-0.008149517694645446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1385094308542716</v>
+        <v>0.1247043383361289</v>
       </c>
       <c r="C56">
-        <v>0.1076849956878749</v>
+        <v>0.1319021018671719</v>
       </c>
       <c r="D56">
-        <v>-0.01237901545928602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01266360640743183</v>
+      </c>
+      <c r="E56">
+        <v>-0.05088893645119772</v>
+      </c>
+      <c r="F56">
+        <v>-0.05891821943036409</v>
+      </c>
+      <c r="G56">
+        <v>-0.01550426658401786</v>
+      </c>
+      <c r="H56">
+        <v>-0.03397324122219809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.005250794149910138</v>
+        <v>0.007031228429452016</v>
       </c>
       <c r="C58">
-        <v>0.02394082178030462</v>
+        <v>0.03864488971261687</v>
       </c>
       <c r="D58">
-        <v>0.272530703784833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3178121718168304</v>
+      </c>
+      <c r="E58">
+        <v>-0.07631975351825294</v>
+      </c>
+      <c r="F58">
+        <v>-0.09730616604141477</v>
+      </c>
+      <c r="G58">
+        <v>-0.04371529515289505</v>
+      </c>
+      <c r="H58">
+        <v>-0.03818834732304934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1477683808104764</v>
+        <v>0.1840451050774784</v>
       </c>
       <c r="C59">
-        <v>-0.1766746794390611</v>
+        <v>-0.1620806190170276</v>
       </c>
       <c r="D59">
-        <v>0.04291870776580258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05733013094922848</v>
+      </c>
+      <c r="E59">
+        <v>-0.04261067620904327</v>
+      </c>
+      <c r="F59">
+        <v>0.03237572836106986</v>
+      </c>
+      <c r="G59">
+        <v>-0.001610703166085177</v>
+      </c>
+      <c r="H59">
+        <v>-0.02167041007558208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2371610195512403</v>
+        <v>0.2249238364686947</v>
       </c>
       <c r="C60">
-        <v>0.06942057632598161</v>
+        <v>0.1047949245228851</v>
       </c>
       <c r="D60">
-        <v>0.197583479284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1330912723544338</v>
+      </c>
+      <c r="E60">
+        <v>0.3230152447499235</v>
+      </c>
+      <c r="F60">
+        <v>0.0881399250200133</v>
+      </c>
+      <c r="G60">
+        <v>0.03222461034100856</v>
+      </c>
+      <c r="H60">
+        <v>-0.186779662045908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04344948751964335</v>
+        <v>0.03904430827102331</v>
       </c>
       <c r="C61">
-        <v>0.05373276332145101</v>
+        <v>0.06316702548000475</v>
       </c>
       <c r="D61">
-        <v>0.1037600201942194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0932616519851442</v>
+      </c>
+      <c r="E61">
+        <v>-0.0005823273775956904</v>
+      </c>
+      <c r="F61">
+        <v>0.01451528564687049</v>
+      </c>
+      <c r="G61">
+        <v>0.0114610907515085</v>
+      </c>
+      <c r="H61">
+        <v>0.05551655767978918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01633698280877911</v>
+        <v>0.0156439761603785</v>
       </c>
       <c r="C63">
-        <v>0.02181169959497734</v>
+        <v>0.0315870518080616</v>
       </c>
       <c r="D63">
-        <v>0.08042240252434046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07685862175353285</v>
+      </c>
+      <c r="E63">
+        <v>-0.007714725593182441</v>
+      </c>
+      <c r="F63">
+        <v>-0.01235206475981501</v>
+      </c>
+      <c r="G63">
+        <v>0.01839245060169161</v>
+      </c>
+      <c r="H63">
+        <v>0.0478458855383322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05831976556913886</v>
+        <v>0.04914810585861636</v>
       </c>
       <c r="C64">
-        <v>0.07481978328965501</v>
+        <v>0.08197029486948842</v>
       </c>
       <c r="D64">
-        <v>0.05207959863450801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05581084240397146</v>
+      </c>
+      <c r="E64">
+        <v>-0.01743775186637082</v>
+      </c>
+      <c r="F64">
+        <v>-0.006078640525793991</v>
+      </c>
+      <c r="G64">
+        <v>0.06730632438097027</v>
+      </c>
+      <c r="H64">
+        <v>0.03681226624937296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04029376483668796</v>
+        <v>0.03985610197633339</v>
       </c>
       <c r="C65">
-        <v>0.01958886685461051</v>
+        <v>0.03165266332657991</v>
       </c>
       <c r="D65">
-        <v>0.1272455273490682</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1159668147635397</v>
+      </c>
+      <c r="E65">
+        <v>0.01291822043891619</v>
+      </c>
+      <c r="F65">
+        <v>-0.01168331305417494</v>
+      </c>
+      <c r="G65">
+        <v>0.00206662240214666</v>
+      </c>
+      <c r="H65">
+        <v>0.01879097793975315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04039442988102327</v>
+        <v>0.03727703676174737</v>
       </c>
       <c r="C66">
-        <v>0.06631158564111549</v>
+        <v>0.07925093849840545</v>
       </c>
       <c r="D66">
-        <v>0.1120468965668744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1285822782742949</v>
+      </c>
+      <c r="E66">
+        <v>-0.006933586908907379</v>
+      </c>
+      <c r="F66">
+        <v>0.01008247467484676</v>
+      </c>
+      <c r="G66">
+        <v>0.006052227892952071</v>
+      </c>
+      <c r="H66">
+        <v>0.05863290658631495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03865685303780207</v>
+        <v>0.03784487525335157</v>
       </c>
       <c r="C67">
-        <v>0.02073733501000236</v>
+        <v>0.02510389442688691</v>
       </c>
       <c r="D67">
-        <v>0.03960624230141774</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03131762070354261</v>
+      </c>
+      <c r="E67">
+        <v>-0.009995399292234102</v>
+      </c>
+      <c r="F67">
+        <v>0.02008740607808428</v>
+      </c>
+      <c r="G67">
+        <v>-0.01344062365751471</v>
+      </c>
+      <c r="H67">
+        <v>0.0421902565032586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1701250514564715</v>
+        <v>0.2046407837928326</v>
       </c>
       <c r="C68">
-        <v>-0.21609521476764</v>
+        <v>-0.1913915577849082</v>
       </c>
       <c r="D68">
-        <v>0.02245621350988349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02672665094375802</v>
+      </c>
+      <c r="E68">
+        <v>-0.02358227865894851</v>
+      </c>
+      <c r="F68">
+        <v>-0.03218324118891337</v>
+      </c>
+      <c r="G68">
+        <v>-0.001497122190505271</v>
+      </c>
+      <c r="H68">
+        <v>0.005264254357258508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08455980624700174</v>
+        <v>0.07077426692082205</v>
       </c>
       <c r="C69">
-        <v>0.09680057658036625</v>
+        <v>0.1019593155992184</v>
       </c>
       <c r="D69">
-        <v>0.06265727938148974</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04687218452710472</v>
+      </c>
+      <c r="E69">
+        <v>-0.02073844020580399</v>
+      </c>
+      <c r="F69">
+        <v>-0.014166867767537</v>
+      </c>
+      <c r="G69">
+        <v>-0.01347387976023297</v>
+      </c>
+      <c r="H69">
+        <v>-0.004800442096383807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.152977311869514</v>
+        <v>0.1896492719600854</v>
       </c>
       <c r="C71">
-        <v>-0.216978343208018</v>
+        <v>-0.1982976175939057</v>
       </c>
       <c r="D71">
-        <v>0.03036462750861835</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03884105178281782</v>
+      </c>
+      <c r="E71">
+        <v>-0.04164482313733869</v>
+      </c>
+      <c r="F71">
+        <v>-0.07074923298811356</v>
+      </c>
+      <c r="G71">
+        <v>-0.03357592501121284</v>
+      </c>
+      <c r="H71">
+        <v>0.003937415389890148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1068214268133605</v>
+        <v>0.09968062093538914</v>
       </c>
       <c r="C72">
-        <v>0.05554296291639949</v>
+        <v>0.07927035498902671</v>
       </c>
       <c r="D72">
-        <v>0.09272632426384537</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09393685207701986</v>
+      </c>
+      <c r="E72">
+        <v>0.05415470776564213</v>
+      </c>
+      <c r="F72">
+        <v>-0.02791242249691665</v>
+      </c>
+      <c r="G72">
+        <v>0.03982557300639725</v>
+      </c>
+      <c r="H72">
+        <v>0.02640801979126272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2571657302569233</v>
+        <v>0.2351022737157306</v>
       </c>
       <c r="C73">
-        <v>0.04555190693474707</v>
+        <v>0.1036502769593975</v>
       </c>
       <c r="D73">
-        <v>0.2928488164765864</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1519137675820904</v>
+      </c>
+      <c r="E73">
+        <v>0.616563355875656</v>
+      </c>
+      <c r="F73">
+        <v>0.2038053619804464</v>
+      </c>
+      <c r="G73">
+        <v>0.04976174429741835</v>
+      </c>
+      <c r="H73">
+        <v>-0.2121263948743946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1061816917383418</v>
+        <v>0.09336449020298354</v>
       </c>
       <c r="C74">
-        <v>0.07429993584480261</v>
+        <v>0.0937778928365901</v>
       </c>
       <c r="D74">
-        <v>-0.01219445525705656</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01512032284698854</v>
+      </c>
+      <c r="E74">
+        <v>-0.04034354782028021</v>
+      </c>
+      <c r="F74">
+        <v>-0.07702598812004402</v>
+      </c>
+      <c r="G74">
+        <v>0.03171944315161709</v>
+      </c>
+      <c r="H74">
+        <v>-0.05060457336220171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2501065490509015</v>
+        <v>0.2206890495453802</v>
       </c>
       <c r="C75">
-        <v>0.1326487198477752</v>
+        <v>0.1718308723346767</v>
       </c>
       <c r="D75">
-        <v>-0.08978048286245764</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1066218837622932</v>
+      </c>
+      <c r="E75">
+        <v>-0.1096653218978619</v>
+      </c>
+      <c r="F75">
+        <v>-0.03194157316409929</v>
+      </c>
+      <c r="G75">
+        <v>-0.007186488811719928</v>
+      </c>
+      <c r="H75">
+        <v>-0.07080537050560171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1378220331856488</v>
+        <v>0.1218783892462031</v>
       </c>
       <c r="C76">
-        <v>0.0960967199846499</v>
+        <v>0.1167273036366355</v>
       </c>
       <c r="D76">
-        <v>-0.01021749333197521</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01149276423403245</v>
+      </c>
+      <c r="E76">
+        <v>-0.1011129571035685</v>
+      </c>
+      <c r="F76">
+        <v>-0.04895290021108133</v>
+      </c>
+      <c r="G76">
+        <v>0.02264682771702083</v>
+      </c>
+      <c r="H76">
+        <v>0.01698997775999234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05088289712674145</v>
+        <v>0.05480119110261965</v>
       </c>
       <c r="C77">
-        <v>0.06720060884082826</v>
+        <v>0.07858844883730461</v>
       </c>
       <c r="D77">
-        <v>0.03886867998249643</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1310249187756601</v>
+      </c>
+      <c r="E77">
+        <v>-0.3744641119936238</v>
+      </c>
+      <c r="F77">
+        <v>0.2839752861331283</v>
+      </c>
+      <c r="G77">
+        <v>-0.5409465207949888</v>
+      </c>
+      <c r="H77">
+        <v>-0.5850725004647923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04204357419429779</v>
+        <v>0.04451122729505368</v>
       </c>
       <c r="C78">
-        <v>0.06089846209901117</v>
+        <v>0.06829794609990382</v>
       </c>
       <c r="D78">
-        <v>0.1284486949357307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.137353713531471</v>
+      </c>
+      <c r="E78">
+        <v>-0.007008229346030495</v>
+      </c>
+      <c r="F78">
+        <v>-0.03749326145452601</v>
+      </c>
+      <c r="G78">
+        <v>-0.007166296590025702</v>
+      </c>
+      <c r="H78">
+        <v>-0.005803493538228757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04493120439348394</v>
+        <v>0.04876972047749133</v>
       </c>
       <c r="C79">
-        <v>0.09246856424566945</v>
+        <v>0.1011094640219406</v>
       </c>
       <c r="D79">
-        <v>-0.1026381817560742</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02974053418210594</v>
+      </c>
+      <c r="E79">
+        <v>-0.2150579784918255</v>
+      </c>
+      <c r="F79">
+        <v>-0.3563362042442912</v>
+      </c>
+      <c r="G79">
+        <v>0.6129063450675999</v>
+      </c>
+      <c r="H79">
+        <v>-0.467580265800609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02525128408708108</v>
+        <v>0.02343815311451427</v>
       </c>
       <c r="C80">
-        <v>0.04760373507894466</v>
+        <v>0.04642904051741916</v>
       </c>
       <c r="D80">
-        <v>0.02088062125086548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0191822298366033</v>
+      </c>
+      <c r="E80">
+        <v>-0.01374103960744534</v>
+      </c>
+      <c r="F80">
+        <v>-0.006742740362601564</v>
+      </c>
+      <c r="G80">
+        <v>0.01318938240264935</v>
+      </c>
+      <c r="H80">
+        <v>0.06401194190641418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1387791539649181</v>
+        <v>0.1177021804452731</v>
       </c>
       <c r="C81">
-        <v>0.1060347700580169</v>
+        <v>0.1253979179182477</v>
       </c>
       <c r="D81">
-        <v>-0.08005892065444528</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07942021890501993</v>
+      </c>
+      <c r="E81">
+        <v>-0.1001921594385232</v>
+      </c>
+      <c r="F81">
+        <v>-0.06725989644072736</v>
+      </c>
+      <c r="G81">
+        <v>0.0004702790769868827</v>
+      </c>
+      <c r="H81">
+        <v>-0.002082337663528913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3173091721415514</v>
+        <v>0.2594392411468294</v>
       </c>
       <c r="C82">
-        <v>0.2629163404112503</v>
+        <v>0.2782787131511319</v>
       </c>
       <c r="D82">
-        <v>-0.2590973491530818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2565687902296324</v>
+      </c>
+      <c r="E82">
+        <v>0.01863658162142765</v>
+      </c>
+      <c r="F82">
+        <v>-0.01849378213096783</v>
+      </c>
+      <c r="G82">
+        <v>-0.2183574243237322</v>
+      </c>
+      <c r="H82">
+        <v>0.119381578138064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02845950488281768</v>
+        <v>0.02015432413852091</v>
       </c>
       <c r="C83">
-        <v>0.05632705762816004</v>
+        <v>0.05549990157981297</v>
       </c>
       <c r="D83">
-        <v>0.04263985579912711</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04565686702516169</v>
+      </c>
+      <c r="E83">
+        <v>-0.04441362378374911</v>
+      </c>
+      <c r="F83">
+        <v>0.06288549625080748</v>
+      </c>
+      <c r="G83">
+        <v>-0.06719868623056757</v>
+      </c>
+      <c r="H83">
+        <v>-0.02137897327681903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0008178805680777476</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004639264770225048</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01870833380627712</v>
+      </c>
+      <c r="E84">
+        <v>-0.01573787608949571</v>
+      </c>
+      <c r="F84">
+        <v>-0.01638065392324859</v>
+      </c>
+      <c r="G84">
+        <v>0.003462378297936091</v>
+      </c>
+      <c r="H84">
+        <v>0.02182809114138473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1711516208130339</v>
+        <v>0.1495793071978392</v>
       </c>
       <c r="C85">
-        <v>0.1098674907394523</v>
+        <v>0.1397765988612688</v>
       </c>
       <c r="D85">
-        <v>-0.03779870804693385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05780684670737018</v>
+      </c>
+      <c r="E85">
+        <v>-0.03175098037045639</v>
+      </c>
+      <c r="F85">
+        <v>-0.05931494873976603</v>
+      </c>
+      <c r="G85">
+        <v>0.0914562672020322</v>
+      </c>
+      <c r="H85">
+        <v>-0.03692745364619959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01777773670947953</v>
+        <v>0.01810762635876071</v>
       </c>
       <c r="C86">
-        <v>0.03620177642473991</v>
+        <v>0.03467820260025839</v>
       </c>
       <c r="D86">
-        <v>0.1148258216067231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1174935576187426</v>
+      </c>
+      <c r="E86">
+        <v>-0.02891976551903299</v>
+      </c>
+      <c r="F86">
+        <v>0.003400268250754351</v>
+      </c>
+      <c r="G86">
+        <v>-0.07869559909808134</v>
+      </c>
+      <c r="H86">
+        <v>-0.004177480229561083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02260741123085575</v>
+        <v>0.03046912702465203</v>
       </c>
       <c r="C87">
-        <v>0.01958027927082184</v>
+        <v>0.02861350686195419</v>
       </c>
       <c r="D87">
-        <v>0.1030785144431369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1339655710165084</v>
+      </c>
+      <c r="E87">
+        <v>-0.05941814758603109</v>
+      </c>
+      <c r="F87">
+        <v>-0.02270443559050092</v>
+      </c>
+      <c r="G87">
+        <v>-0.001775539198071718</v>
+      </c>
+      <c r="H87">
+        <v>0.0569486930159782</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07591247655082416</v>
+        <v>0.06526395108418084</v>
       </c>
       <c r="C88">
-        <v>0.04364688710618218</v>
+        <v>0.05778171901087355</v>
       </c>
       <c r="D88">
-        <v>0.04132795094835984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01885316357797021</v>
+      </c>
+      <c r="E88">
+        <v>-0.0008053019541251315</v>
+      </c>
+      <c r="F88">
+        <v>-0.03061833249538907</v>
+      </c>
+      <c r="G88">
+        <v>0.007857168576257723</v>
+      </c>
+      <c r="H88">
+        <v>0.04304876245719261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2381452600995474</v>
+        <v>0.2913501551642735</v>
       </c>
       <c r="C89">
-        <v>-0.3942916829617173</v>
+        <v>-0.3385171540699807</v>
       </c>
       <c r="D89">
-        <v>-0.005739824807755461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.006181446818665583</v>
+      </c>
+      <c r="E89">
+        <v>-0.0623065831547677</v>
+      </c>
+      <c r="F89">
+        <v>0.007860740294939928</v>
+      </c>
+      <c r="G89">
+        <v>0.05224886164105565</v>
+      </c>
+      <c r="H89">
+        <v>0.0848560311793478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2077714924124015</v>
+        <v>0.245798130296321</v>
       </c>
       <c r="C90">
-        <v>-0.2932970685548844</v>
+        <v>-0.2437208398432191</v>
       </c>
       <c r="D90">
-        <v>0.008331705713075057</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0243297864813589</v>
+      </c>
+      <c r="E90">
+        <v>-0.04802444991104313</v>
+      </c>
+      <c r="F90">
+        <v>0.002347365603030454</v>
+      </c>
+      <c r="G90">
+        <v>-0.04037830938847538</v>
+      </c>
+      <c r="H90">
+        <v>0.05397379901560376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1764725106026773</v>
+        <v>0.1495534525606178</v>
       </c>
       <c r="C91">
-        <v>0.1489925689214845</v>
+        <v>0.1622513789793708</v>
       </c>
       <c r="D91">
-        <v>-0.09475367888297569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09029106605044823</v>
+      </c>
+      <c r="E91">
+        <v>-0.1066436200670458</v>
+      </c>
+      <c r="F91">
+        <v>-0.07122410396405647</v>
+      </c>
+      <c r="G91">
+        <v>0.03919938481758323</v>
+      </c>
+      <c r="H91">
+        <v>-0.07414652152888374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1829161186518253</v>
+        <v>0.2331548312570818</v>
       </c>
       <c r="C92">
-        <v>-0.2774004213617953</v>
+        <v>-0.2629671281867345</v>
       </c>
       <c r="D92">
-        <v>0.01876658671617568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03260693336311532</v>
+      </c>
+      <c r="E92">
+        <v>-0.09134018483093832</v>
+      </c>
+      <c r="F92">
+        <v>-0.01322174907065043</v>
+      </c>
+      <c r="G92">
+        <v>-0.03006527351660572</v>
+      </c>
+      <c r="H92">
+        <v>0.04118710183681443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2308591853404803</v>
+        <v>0.2637463929586727</v>
       </c>
       <c r="C93">
-        <v>-0.305812974670539</v>
+        <v>-0.2544900116539039</v>
       </c>
       <c r="D93">
-        <v>0.02380974231930637</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003380527642195589</v>
+      </c>
+      <c r="E93">
+        <v>0.01711608455947801</v>
+      </c>
+      <c r="F93">
+        <v>-0.02752815230483667</v>
+      </c>
+      <c r="G93">
+        <v>0.01187612085111929</v>
+      </c>
+      <c r="H93">
+        <v>-0.002115937116727267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3707839015876755</v>
+        <v>0.3221413425013583</v>
       </c>
       <c r="C94">
-        <v>0.1891373144693918</v>
+        <v>0.2533323911433114</v>
       </c>
       <c r="D94">
-        <v>-0.4141175988273876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4195486630767</v>
+      </c>
+      <c r="E94">
+        <v>-0.04454704235638862</v>
+      </c>
+      <c r="F94">
+        <v>0.04620098510997696</v>
+      </c>
+      <c r="G94">
+        <v>-0.06212093257534723</v>
+      </c>
+      <c r="H94">
+        <v>0.2674304492250775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07023104105076283</v>
+        <v>0.06762382550539904</v>
       </c>
       <c r="C95">
-        <v>0.05878842664491549</v>
+        <v>0.06737922265263768</v>
       </c>
       <c r="D95">
-        <v>0.07887529912964811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08389066114029811</v>
+      </c>
+      <c r="E95">
+        <v>-0.2878054530469186</v>
+      </c>
+      <c r="F95">
+        <v>0.7792568063417283</v>
+      </c>
+      <c r="G95">
+        <v>0.4430432626427543</v>
+      </c>
+      <c r="H95">
+        <v>0.1270700780556253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.341546965855517e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.744034192356535e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-4.839297180691022e-05</v>
+      </c>
+      <c r="E97">
+        <v>4.666414404949128e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001840723582239391</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001498018673598854</v>
+      </c>
+      <c r="H97">
+        <v>-0.0001935698689861813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1687256842910452</v>
+        <v>0.1633363461414762</v>
       </c>
       <c r="C98">
-        <v>0.04498756491869287</v>
+        <v>0.07602572993299667</v>
       </c>
       <c r="D98">
-        <v>0.1621343850247599</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1145484203567966</v>
+      </c>
+      <c r="E98">
+        <v>0.3109453955185234</v>
+      </c>
+      <c r="F98">
+        <v>0.03730429934887858</v>
+      </c>
+      <c r="G98">
+        <v>0.02696620133098336</v>
+      </c>
+      <c r="H98">
+        <v>-0.1155621461114901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0007204475586576447</v>
+        <v>0.004509831019135224</v>
       </c>
       <c r="C101">
-        <v>0.02038111255398311</v>
+        <v>0.0217864531111276</v>
       </c>
       <c r="D101">
-        <v>0.08284789525053061</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09437209002012165</v>
+      </c>
+      <c r="E101">
+        <v>-0.01645762569903362</v>
+      </c>
+      <c r="F101">
+        <v>-0.03288154655626144</v>
+      </c>
+      <c r="G101">
+        <v>0.01366559426486181</v>
+      </c>
+      <c r="H101">
+        <v>0.0914694945437127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1252686172742125</v>
+        <v>0.1013051615553989</v>
       </c>
       <c r="C102">
-        <v>0.1206207677364099</v>
+        <v>0.1235015137359506</v>
       </c>
       <c r="D102">
-        <v>-0.06447050500394245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07088577046287446</v>
+      </c>
+      <c r="E102">
+        <v>-0.03357237590986529</v>
+      </c>
+      <c r="F102">
+        <v>0.00743384523449927</v>
+      </c>
+      <c r="G102">
+        <v>-0.02542465289762665</v>
+      </c>
+      <c r="H102">
+        <v>-0.004071385274570673</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
